--- a/AAII_Financials/Yearly/TKO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TKO_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Yearly/TKO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TKO_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,141 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>433300</v>
+      </c>
+      <c r="E8" s="3">
         <v>343300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>329200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>343900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>378300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>263900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>289300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>342900</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>269500</v>
+      </c>
+      <c r="E9" s="3">
         <v>319500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>368300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>302600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>248300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>262100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>288000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>366100</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>163800</v>
+      </c>
+      <c r="E10" s="3">
         <v>23700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-39100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>41200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>130000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-23100</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,35 +811,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E12" s="3">
         <v>1400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5900</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,36 +868,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>12700</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>20500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2600</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -906,9 +928,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>315800</v>
+      </c>
+      <c r="E17" s="3">
         <v>337200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>390500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>315600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>299300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>289500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>290000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>364600</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>117500</v>
+      </c>
+      <c r="E18" s="3">
         <v>6000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-61400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>28200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>79000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-25700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-21700</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>10300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-31500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>15400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-43900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-16600</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>176300</v>
+      </c>
+      <c r="E21" s="3">
         <v>100000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>58600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>67500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>142100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>34600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9000</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E22" s="3">
         <v>37300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>34600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>32100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>31000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>27600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>23400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>24400</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-32600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-85700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-35300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>63400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-46100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-68000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-62700</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-9100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-32300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>29200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-14700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-5600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-8800</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-23500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-53400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-35800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>34300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-31400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-62400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-53900</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-23500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-53400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-35800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>34300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-31400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-62400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-53900</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1253,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-10300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>31500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-15400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>43900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>16600</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-23500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-53400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-35800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>34300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-31400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-62400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-53900</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-23500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-53400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-35800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>34300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-31400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-62400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-53900</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,170 +1559,189 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>236800</v>
+      </c>
+      <c r="E41" s="3">
         <v>85100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>53200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>45700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>80200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>89000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>68500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>53300</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E42" s="3">
         <v>1800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1000</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E43" s="3">
         <v>6700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>14700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>21600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>13200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>39800</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E44" s="3">
         <v>58800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>43600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>39000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>39600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>60500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>40600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>36100</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E45" s="3">
         <v>4800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6500</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>337200</v>
+      </c>
+      <c r="E46" s="3">
         <v>157200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>113900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>104400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>145700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>165300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>125600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>136600</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1645,7 +1749,7 @@
         <v>1200</v>
       </c>
       <c r="E47" s="3">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="F47" s="3">
         <v>2400</v>
@@ -1654,71 +1758,80 @@
         <v>2400</v>
       </c>
       <c r="H47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I47" s="3">
         <v>10300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>26300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>28400</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>837800</v>
+      </c>
+      <c r="E48" s="3">
         <v>742600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>758000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>821300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>797300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>730200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1589500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>793700</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E49" s="3">
         <v>5300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4800</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E52" s="3">
         <v>4100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>39000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>38100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>38000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>53800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>29100</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1183200</v>
+      </c>
+      <c r="E54" s="3">
         <v>910400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>884000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>972700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>988700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>949400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>974200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>992500</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E57" s="3">
         <v>32800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>24200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>21900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>23900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>28200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>56400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>36900</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E58" s="3">
         <v>17600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>16500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>16200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>59800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>20200</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E59" s="3">
         <v>28100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>26700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>25700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>26300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>9400</v>
       </c>
       <c r="J59" s="3">
         <v>9400</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3">
+        <v>9400</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>103500</v>
+      </c>
+      <c r="E60" s="3">
         <v>78500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>67300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>57400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>61400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>54800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>95500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>66400</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>514800</v>
+      </c>
+      <c r="E61" s="3">
         <v>345800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>357000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>345600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>317900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>373100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>305400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>293500</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>206400</v>
+      </c>
+      <c r="E62" s="3">
         <v>168700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>158000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>222600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>242300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>182600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>203500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>210300</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>824700</v>
+      </c>
+      <c r="E66" s="3">
         <v>593000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>582300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>625600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>621600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>610500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>603900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>570300</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-180100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-216600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-193100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-139700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-102900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-137100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-105700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-43400</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>358500</v>
+      </c>
+      <c r="E76" s="3">
         <v>317400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>301700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>347100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>367100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>338900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>370300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>422300</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-23500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-53400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-35800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>34300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-31400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-62400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-53900</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E83" s="3">
         <v>95300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>109800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>70800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>47700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>53000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>49600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>47300</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>174800</v>
+      </c>
+      <c r="E89" s="3">
         <v>106200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>42600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>94100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>211100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>33900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>51700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>50600</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-70700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-65500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-50800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-94900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-97200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-18800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-38800</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-147700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-59600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-94400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-101800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-19100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-39400</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,8 +3058,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2852,9 +3085,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>125800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-16700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-33600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-112900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-30600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-44100</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3300</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>151700</v>
+      </c>
+      <c r="E102" s="3">
         <v>31900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-34600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>20500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>22700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-29600</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TKO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TKO_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>391600</v>
+      </c>
+      <c r="E8" s="3">
         <v>433300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>343300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>329200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>343900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>378300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>263900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>289300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>342900</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>337400</v>
+      </c>
+      <c r="E9" s="3">
         <v>269500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>319500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>368300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>302600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>248300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>262100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>288000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>366100</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E10" s="3">
         <v>163800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>23700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-39100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>41200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>130000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-23100</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>500</v>
+      </c>
+      <c r="E12" s="3">
         <v>-400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5900</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,39 +887,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>12700</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>20500</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2600</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>335700</v>
+      </c>
+      <c r="E17" s="3">
         <v>315800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>337200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>390500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>315600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>299300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>289500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>290000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>364600</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E18" s="3">
         <v>117500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-61400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>28200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>79000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-25700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-21700</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>10300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-31500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>15400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-43900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-16600</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E21" s="3">
         <v>176300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>100000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>58600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>67500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>142100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>34600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9000</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E22" s="3">
         <v>38900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>37300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>34600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>32100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>31000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>27600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>23400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>24400</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E23" s="3">
         <v>70800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-32600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-85700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-35300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>63400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-46100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-68000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-62700</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E24" s="3">
         <v>34300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-9100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-32300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>29200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-14700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-8800</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E26" s="3">
         <v>36500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-23500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-53400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-35800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>34300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-31400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-62400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-53900</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E27" s="3">
         <v>36500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-53400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-35800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>34300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-31400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-62400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-53900</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E32" s="3">
         <v>7800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-10300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>31500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-15400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>43900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>16600</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E33" s="3">
         <v>36500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-53400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-35800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>34300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-31400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-62400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-53900</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E35" s="3">
         <v>36500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-53400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-35800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>34300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-31400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-62400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-53900</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,188 +1645,207 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>120900</v>
+      </c>
+      <c r="E41" s="3">
         <v>236800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>85100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>53200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>45700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>80200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>89000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>68500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>53300</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E42" s="3">
         <v>3100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E43" s="3">
         <v>9600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>14700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>21600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>39800</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>92800</v>
+      </c>
+      <c r="E44" s="3">
         <v>79900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>58800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>43600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>39000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>39600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>60500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>40600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>36100</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E45" s="3">
         <v>7900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6500</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>240900</v>
+      </c>
+      <c r="E46" s="3">
         <v>337200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>157200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>113900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>104400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>145700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>165300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>125600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>136600</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1752,7 +1856,7 @@
         <v>1200</v>
       </c>
       <c r="F47" s="3">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G47" s="3">
         <v>2400</v>
@@ -1761,77 +1865,86 @@
         <v>2400</v>
       </c>
       <c r="I47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J47" s="3">
         <v>10300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>26300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>28400</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1029200</v>
+      </c>
+      <c r="E48" s="3">
         <v>837800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>742600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>758000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>821300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>797300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>730200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1589500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>793700</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E49" s="3">
         <v>5200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4800</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E52" s="3">
         <v>1700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>39000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>38100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>38000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>53800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>29100</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1278700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1183200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>910400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>884000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>972700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>988700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>949400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>974200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>992500</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E57" s="3">
         <v>30100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>24200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>21900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>23900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>28200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>56400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>36900</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E58" s="3">
         <v>18300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>17600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>16500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>16200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>59800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>20200</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E59" s="3">
         <v>55100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>26700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>25700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>26300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>9400</v>
       </c>
       <c r="K59" s="3">
         <v>9400</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>9400</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>112600</v>
+      </c>
+      <c r="E60" s="3">
         <v>103500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>78500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>67300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>57400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>61400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>54800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>95500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>66400</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>569100</v>
+      </c>
+      <c r="E61" s="3">
         <v>514800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>345800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>357000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>345600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>317900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>373100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>305400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>293500</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>240600</v>
+      </c>
+      <c r="E62" s="3">
         <v>206400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>168700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>158000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>222600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>242300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>182600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>203500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>210300</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>922300</v>
+      </c>
+      <c r="E66" s="3">
         <v>824700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>593000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>582300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>625600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>621600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>610500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>603900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>570300</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-206100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-180100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-216600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-193100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-139700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-102900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-137100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-105700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-43400</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>356400</v>
+      </c>
+      <c r="E76" s="3">
         <v>358500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>317400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>301700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>347100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>367100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>338900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>370300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>422300</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E81" s="3">
         <v>36500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-53400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-35800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>34300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-31400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-62400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-53900</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E83" s="3">
         <v>66600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>95300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>109800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>70800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>47700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>53000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>49600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>47300</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>81300</v>
+      </c>
+      <c r="E89" s="3">
         <v>174800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>106200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>42600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>94100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>211100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>33900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>51700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>50600</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-149000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-70700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-65500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-50800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-94900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-97200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-38800</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-166400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-147700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-59600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-94400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-101800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-19100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-39400</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="E100" s="3">
         <v>125800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-16700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-33600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-112900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-30600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-44100</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3300</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-115900</v>
+      </c>
+      <c r="E102" s="3">
         <v>151700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>31900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-34600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>20500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>22700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-29600</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TKO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TKO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>TKO</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>391600</v>
+        <v>1291500</v>
       </c>
       <c r="E8" s="3">
-        <v>433300</v>
+        <v>1095200</v>
       </c>
       <c r="F8" s="3">
-        <v>343300</v>
+        <v>974200</v>
       </c>
       <c r="G8" s="3">
-        <v>329200</v>
+        <v>960400</v>
       </c>
       <c r="H8" s="3">
-        <v>343900</v>
+        <v>930200</v>
       </c>
       <c r="I8" s="3">
-        <v>378300</v>
+        <v>801000</v>
       </c>
       <c r="J8" s="3">
-        <v>263900</v>
+        <v>729200</v>
       </c>
       <c r="K8" s="3">
         <v>289300</v>
@@ -749,26 +749,26 @@
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>337400</v>
-      </c>
-      <c r="E9" s="3">
-        <v>269500</v>
-      </c>
-      <c r="F9" s="3">
-        <v>319500</v>
-      </c>
-      <c r="G9" s="3">
-        <v>368300</v>
-      </c>
-      <c r="H9" s="3">
-        <v>302600</v>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I9" s="3">
-        <v>248300</v>
+        <v>459000</v>
       </c>
       <c r="J9" s="3">
-        <v>262100</v>
+        <v>430000</v>
       </c>
       <c r="K9" s="3">
         <v>288000</v>
@@ -782,26 +782,26 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>54200</v>
-      </c>
-      <c r="E10" s="3">
-        <v>163800</v>
-      </c>
-      <c r="F10" s="3">
-        <v>23700</v>
-      </c>
-      <c r="G10" s="3">
-        <v>-39100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>41200</v>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I10" s="3">
-        <v>130000</v>
+        <v>342000</v>
       </c>
       <c r="J10" s="3">
-        <v>1800</v>
+        <v>299200</v>
       </c>
       <c r="K10" s="3">
         <v>1300</v>
@@ -830,26 +830,26 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>500</v>
-      </c>
-      <c r="E12" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G12" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2100</v>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K12" s="3">
         <v>900</v>
@@ -897,22 +897,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
-        <v>12700</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>20500</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>88500</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>77200</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>82900</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>81700</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>25100</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>26100</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>24400</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>335700</v>
+        <v>1008300</v>
       </c>
       <c r="E17" s="3">
-        <v>315800</v>
+        <v>839200</v>
       </c>
       <c r="F17" s="3">
-        <v>337200</v>
+        <v>765700</v>
       </c>
       <c r="G17" s="3">
-        <v>390500</v>
+        <v>843900</v>
       </c>
       <c r="H17" s="3">
-        <v>315600</v>
+        <v>815700</v>
       </c>
       <c r="I17" s="3">
-        <v>299300</v>
+        <v>725400</v>
       </c>
       <c r="J17" s="3">
-        <v>289500</v>
+        <v>673600</v>
       </c>
       <c r="K17" s="3">
         <v>290000</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>55900</v>
+        <v>283200</v>
       </c>
       <c r="E18" s="3">
-        <v>117500</v>
+        <v>256000</v>
       </c>
       <c r="F18" s="3">
-        <v>6000</v>
+        <v>208500</v>
       </c>
       <c r="G18" s="3">
-        <v>-61400</v>
+        <v>116500</v>
       </c>
       <c r="H18" s="3">
-        <v>28200</v>
+        <v>114500</v>
       </c>
       <c r="I18" s="3">
-        <v>79000</v>
+        <v>75600</v>
       </c>
       <c r="J18" s="3">
-        <v>-25700</v>
+        <v>55600</v>
       </c>
       <c r="K18" s="3">
         <v>-700</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-36600</v>
+        <v>2300</v>
       </c>
       <c r="E20" s="3">
-        <v>-7800</v>
+        <v>7500</v>
       </c>
       <c r="F20" s="3">
-        <v>-1400</v>
+        <v>-1800</v>
       </c>
       <c r="G20" s="3">
-        <v>10300</v>
+        <v>4300</v>
       </c>
       <c r="H20" s="3">
-        <v>-31500</v>
+        <v>7000</v>
       </c>
       <c r="I20" s="3">
-        <v>15400</v>
+        <v>3200</v>
       </c>
       <c r="J20" s="3">
-        <v>7200</v>
+        <v>600</v>
       </c>
       <c r="K20" s="3">
         <v>-43900</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>71200</v>
+        <v>378000</v>
       </c>
       <c r="E21" s="3">
-        <v>176300</v>
+        <v>350800</v>
       </c>
       <c r="F21" s="3">
-        <v>100000</v>
+        <v>299600</v>
       </c>
       <c r="G21" s="3">
-        <v>58600</v>
+        <v>210000</v>
       </c>
       <c r="H21" s="3">
-        <v>67500</v>
+        <v>197700</v>
       </c>
       <c r="I21" s="3">
-        <v>142100</v>
+        <v>156100</v>
       </c>
       <c r="J21" s="3">
-        <v>34600</v>
+        <v>121600</v>
       </c>
       <c r="K21" s="3">
         <v>5000</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>38400</v>
+        <v>21200</v>
       </c>
       <c r="E22" s="3">
-        <v>38900</v>
+        <v>33600</v>
       </c>
       <c r="F22" s="3">
-        <v>37300</v>
+        <v>35600</v>
       </c>
       <c r="G22" s="3">
-        <v>34600</v>
+        <v>26100</v>
       </c>
       <c r="H22" s="3">
-        <v>32100</v>
+        <v>15400</v>
       </c>
       <c r="I22" s="3">
-        <v>31000</v>
+        <v>14700</v>
       </c>
       <c r="J22" s="3">
-        <v>27600</v>
+        <v>3000</v>
       </c>
       <c r="K22" s="3">
         <v>23400</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-19100</v>
+        <v>264400</v>
       </c>
       <c r="E23" s="3">
-        <v>70800</v>
+        <v>229900</v>
       </c>
       <c r="F23" s="3">
-        <v>-32600</v>
+        <v>171100</v>
       </c>
       <c r="G23" s="3">
-        <v>-85700</v>
+        <v>94700</v>
       </c>
       <c r="H23" s="3">
-        <v>-35300</v>
+        <v>106000</v>
       </c>
       <c r="I23" s="3">
-        <v>63400</v>
+        <v>64100</v>
       </c>
       <c r="J23" s="3">
-        <v>-46100</v>
+        <v>53200</v>
       </c>
       <c r="K23" s="3">
         <v>-68000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6800</v>
+        <v>68800</v>
       </c>
       <c r="E24" s="3">
-        <v>34300</v>
+        <v>52500</v>
       </c>
       <c r="F24" s="3">
-        <v>-9100</v>
+        <v>39300</v>
       </c>
       <c r="G24" s="3">
-        <v>-32300</v>
+        <v>17600</v>
       </c>
       <c r="H24" s="3">
-        <v>400</v>
+        <v>6600</v>
       </c>
       <c r="I24" s="3">
-        <v>29200</v>
+        <v>20100</v>
       </c>
       <c r="J24" s="3">
-        <v>-14700</v>
+        <v>19400</v>
       </c>
       <c r="K24" s="3">
         <v>-5600</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-26000</v>
+        <v>195600</v>
       </c>
       <c r="E26" s="3">
-        <v>36500</v>
+        <v>177400</v>
       </c>
       <c r="F26" s="3">
-        <v>-23500</v>
+        <v>131800</v>
       </c>
       <c r="G26" s="3">
-        <v>-53400</v>
+        <v>77100</v>
       </c>
       <c r="H26" s="3">
-        <v>-35800</v>
+        <v>99500</v>
       </c>
       <c r="I26" s="3">
-        <v>34300</v>
+        <v>43900</v>
       </c>
       <c r="J26" s="3">
-        <v>-31400</v>
+        <v>33800</v>
       </c>
       <c r="K26" s="3">
         <v>-62400</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-26000</v>
+        <v>195600</v>
       </c>
       <c r="E27" s="3">
-        <v>36500</v>
+        <v>177400</v>
       </c>
       <c r="F27" s="3">
-        <v>-23500</v>
+        <v>131800</v>
       </c>
       <c r="G27" s="3">
-        <v>-53400</v>
+        <v>77100</v>
       </c>
       <c r="H27" s="3">
-        <v>-35800</v>
+        <v>99500</v>
       </c>
       <c r="I27" s="3">
-        <v>34300</v>
+        <v>43900</v>
       </c>
       <c r="J27" s="3">
-        <v>-31400</v>
+        <v>33800</v>
       </c>
       <c r="K27" s="3">
         <v>-62400</v>
@@ -1352,26 +1352,26 @@
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-11300</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>36600</v>
+        <v>-2300</v>
       </c>
       <c r="E32" s="3">
-        <v>7800</v>
+        <v>-7500</v>
       </c>
       <c r="F32" s="3">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="G32" s="3">
-        <v>-10300</v>
+        <v>-4300</v>
       </c>
       <c r="H32" s="3">
-        <v>31500</v>
+        <v>-7000</v>
       </c>
       <c r="I32" s="3">
-        <v>-15400</v>
+        <v>-3200</v>
       </c>
       <c r="J32" s="3">
-        <v>-7200</v>
+        <v>-600</v>
       </c>
       <c r="K32" s="3">
         <v>43900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-26000</v>
+        <v>195600</v>
       </c>
       <c r="E33" s="3">
-        <v>36500</v>
+        <v>177400</v>
       </c>
       <c r="F33" s="3">
-        <v>-23500</v>
+        <v>131800</v>
       </c>
       <c r="G33" s="3">
-        <v>-53400</v>
+        <v>77100</v>
       </c>
       <c r="H33" s="3">
-        <v>-35800</v>
+        <v>99600</v>
       </c>
       <c r="I33" s="3">
-        <v>34300</v>
+        <v>32600</v>
       </c>
       <c r="J33" s="3">
-        <v>-31400</v>
+        <v>33800</v>
       </c>
       <c r="K33" s="3">
         <v>-62400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-26000</v>
+        <v>195600</v>
       </c>
       <c r="E35" s="3">
-        <v>36500</v>
+        <v>177400</v>
       </c>
       <c r="F35" s="3">
-        <v>-23500</v>
+        <v>131800</v>
       </c>
       <c r="G35" s="3">
-        <v>-53400</v>
+        <v>77100</v>
       </c>
       <c r="H35" s="3">
-        <v>-35800</v>
+        <v>99600</v>
       </c>
       <c r="I35" s="3">
-        <v>34300</v>
+        <v>32600</v>
       </c>
       <c r="J35" s="3">
-        <v>-31400</v>
+        <v>33800</v>
       </c>
       <c r="K35" s="3">
         <v>-62400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>120900</v>
+        <v>220200</v>
       </c>
       <c r="E41" s="3">
-        <v>236800</v>
+        <v>134800</v>
       </c>
       <c r="F41" s="3">
-        <v>85100</v>
+        <v>462100</v>
       </c>
       <c r="G41" s="3">
-        <v>53200</v>
+        <v>90400</v>
       </c>
       <c r="H41" s="3">
-        <v>45700</v>
+        <v>167500</v>
       </c>
       <c r="I41" s="3">
-        <v>80200</v>
+        <v>137700</v>
       </c>
       <c r="J41" s="3">
-        <v>89000</v>
+        <v>212000</v>
       </c>
       <c r="K41" s="3">
         <v>68500</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2600</v>
+        <v>258500</v>
       </c>
       <c r="E42" s="3">
-        <v>3100</v>
+        <v>281000</v>
       </c>
       <c r="F42" s="3">
-        <v>1800</v>
+        <v>131300</v>
       </c>
       <c r="G42" s="3">
-        <v>700</v>
+        <v>160000</v>
       </c>
       <c r="H42" s="3">
-        <v>3600</v>
+        <v>191700</v>
       </c>
       <c r="I42" s="3">
-        <v>2400</v>
+        <v>159700</v>
       </c>
       <c r="J42" s="3">
-        <v>1400</v>
+        <v>55200</v>
       </c>
       <c r="K42" s="3">
         <v>900</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13200</v>
+        <v>112400</v>
       </c>
       <c r="E43" s="3">
-        <v>9600</v>
+        <v>171200</v>
       </c>
       <c r="F43" s="3">
-        <v>6700</v>
+        <v>52000</v>
       </c>
       <c r="G43" s="3">
-        <v>13800</v>
+        <v>124800</v>
       </c>
       <c r="H43" s="3">
-        <v>14700</v>
+        <v>78900</v>
       </c>
       <c r="I43" s="3">
-        <v>21600</v>
+        <v>65200</v>
       </c>
       <c r="J43" s="3">
-        <v>12900</v>
+        <v>53200</v>
       </c>
       <c r="K43" s="3">
         <v>13200</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>92800</v>
+        <v>2900</v>
       </c>
       <c r="E44" s="3">
-        <v>79900</v>
+        <v>8000</v>
       </c>
       <c r="F44" s="3">
-        <v>58800</v>
+        <v>8400</v>
       </c>
       <c r="G44" s="3">
-        <v>43600</v>
+        <v>8300</v>
       </c>
       <c r="H44" s="3">
-        <v>39000</v>
+        <v>7800</v>
       </c>
       <c r="I44" s="3">
-        <v>39600</v>
+        <v>8300</v>
       </c>
       <c r="J44" s="3">
-        <v>60500</v>
+        <v>6500</v>
       </c>
       <c r="K44" s="3">
         <v>40600</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11400</v>
+        <v>33200</v>
       </c>
       <c r="E45" s="3">
-        <v>7900</v>
+        <v>32200</v>
       </c>
       <c r="F45" s="3">
-        <v>4800</v>
+        <v>73100</v>
       </c>
       <c r="G45" s="3">
-        <v>2500</v>
+        <v>20800</v>
       </c>
       <c r="H45" s="3">
-        <v>1500</v>
+        <v>28200</v>
       </c>
       <c r="I45" s="3">
-        <v>1800</v>
+        <v>20000</v>
       </c>
       <c r="J45" s="3">
-        <v>1400</v>
+        <v>22500</v>
       </c>
       <c r="K45" s="3">
         <v>2300</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>240900</v>
+        <v>627100</v>
       </c>
       <c r="E46" s="3">
-        <v>337200</v>
+        <v>627300</v>
       </c>
       <c r="F46" s="3">
-        <v>157200</v>
+        <v>726900</v>
       </c>
       <c r="G46" s="3">
-        <v>113900</v>
+        <v>404300</v>
       </c>
       <c r="H46" s="3">
-        <v>104400</v>
+        <v>474000</v>
       </c>
       <c r="I46" s="3">
-        <v>145700</v>
+        <v>391000</v>
       </c>
       <c r="J46" s="3">
-        <v>165300</v>
+        <v>349300</v>
       </c>
       <c r="K46" s="3">
         <v>125600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1200</v>
+        <v>11800</v>
       </c>
       <c r="E47" s="3">
-        <v>1200</v>
+        <v>11600</v>
       </c>
       <c r="F47" s="3">
-        <v>1200</v>
+        <v>11100</v>
       </c>
       <c r="G47" s="3">
-        <v>2400</v>
+        <v>28100</v>
       </c>
       <c r="H47" s="3">
-        <v>2400</v>
+        <v>30200</v>
       </c>
       <c r="I47" s="3">
-        <v>2400</v>
+        <v>27400</v>
       </c>
       <c r="J47" s="3">
-        <v>10300</v>
+        <v>25000</v>
       </c>
       <c r="K47" s="3">
         <v>26300</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1029200</v>
+        <v>642100</v>
       </c>
       <c r="E48" s="3">
-        <v>837800</v>
+        <v>495000</v>
       </c>
       <c r="F48" s="3">
-        <v>742600</v>
+        <v>485900</v>
       </c>
       <c r="G48" s="3">
-        <v>758000</v>
+        <v>485500</v>
       </c>
       <c r="H48" s="3">
-        <v>821300</v>
+        <v>148100</v>
       </c>
       <c r="I48" s="3">
-        <v>797300</v>
+        <v>131300</v>
       </c>
       <c r="J48" s="3">
-        <v>730200</v>
+        <v>132600</v>
       </c>
       <c r="K48" s="3">
         <v>1589500</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5600</v>
+        <v>16500</v>
       </c>
       <c r="E49" s="3">
-        <v>5200</v>
+        <v>13800</v>
       </c>
       <c r="F49" s="3">
-        <v>5300</v>
+        <v>15400</v>
       </c>
       <c r="G49" s="3">
-        <v>5400</v>
+        <v>20000</v>
       </c>
       <c r="H49" s="3">
-        <v>5600</v>
+        <v>21000</v>
       </c>
       <c r="I49" s="3">
-        <v>5200</v>
+        <v>29600</v>
       </c>
       <c r="J49" s="3">
-        <v>5500</v>
+        <v>39600</v>
       </c>
       <c r="K49" s="3">
         <v>5700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1800</v>
+        <v>58000</v>
       </c>
       <c r="E52" s="3">
-        <v>1700</v>
+        <v>56400</v>
       </c>
       <c r="F52" s="3">
-        <v>4100</v>
+        <v>58000</v>
       </c>
       <c r="G52" s="3">
-        <v>4400</v>
+        <v>54300</v>
       </c>
       <c r="H52" s="3">
-        <v>39000</v>
+        <v>27000</v>
       </c>
       <c r="I52" s="3">
-        <v>38100</v>
+        <v>35200</v>
       </c>
       <c r="J52" s="3">
-        <v>38000</v>
+        <v>54400</v>
       </c>
       <c r="K52" s="3">
         <v>53800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1278700</v>
+        <v>1355600</v>
       </c>
       <c r="E54" s="3">
-        <v>1183200</v>
+        <v>1204100</v>
       </c>
       <c r="F54" s="3">
-        <v>910400</v>
+        <v>1297300</v>
       </c>
       <c r="G54" s="3">
-        <v>884000</v>
+        <v>992200</v>
       </c>
       <c r="H54" s="3">
-        <v>972700</v>
+        <v>700300</v>
       </c>
       <c r="I54" s="3">
-        <v>988700</v>
+        <v>614500</v>
       </c>
       <c r="J54" s="3">
-        <v>949400</v>
+        <v>600900</v>
       </c>
       <c r="K54" s="3">
         <v>974200</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>31700</v>
+        <v>16100</v>
       </c>
       <c r="E57" s="3">
-        <v>30100</v>
+        <v>15600</v>
       </c>
       <c r="F57" s="3">
-        <v>32800</v>
+        <v>11900</v>
       </c>
       <c r="G57" s="3">
-        <v>24200</v>
+        <v>17500</v>
       </c>
       <c r="H57" s="3">
-        <v>21900</v>
+        <v>21000</v>
       </c>
       <c r="I57" s="3">
-        <v>23900</v>
+        <v>18100</v>
       </c>
       <c r="J57" s="3">
-        <v>28200</v>
+        <v>17100</v>
       </c>
       <c r="K57" s="3">
         <v>56400</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>18400</v>
+        <v>226200</v>
       </c>
       <c r="E58" s="3">
-        <v>18300</v>
+        <v>213700</v>
       </c>
       <c r="F58" s="3">
-        <v>17600</v>
+        <v>304700</v>
       </c>
       <c r="G58" s="3">
-        <v>16500</v>
+        <v>200200</v>
       </c>
       <c r="H58" s="3">
-        <v>9900</v>
+        <v>188200</v>
       </c>
       <c r="I58" s="3">
-        <v>11300</v>
+        <v>4600</v>
       </c>
       <c r="J58" s="3">
-        <v>16200</v>
+        <v>6100</v>
       </c>
       <c r="K58" s="3">
         <v>59800</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>62500</v>
+        <v>190100</v>
       </c>
       <c r="E59" s="3">
-        <v>55100</v>
+        <v>186500</v>
       </c>
       <c r="F59" s="3">
-        <v>28100</v>
+        <v>180900</v>
       </c>
       <c r="G59" s="3">
-        <v>26700</v>
+        <v>126700</v>
       </c>
       <c r="H59" s="3">
-        <v>25700</v>
+        <v>148300</v>
       </c>
       <c r="I59" s="3">
-        <v>26300</v>
+        <v>115500</v>
       </c>
       <c r="J59" s="3">
-        <v>10500</v>
+        <v>109900</v>
       </c>
       <c r="K59" s="3">
         <v>9400</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>112600</v>
+        <v>432400</v>
       </c>
       <c r="E60" s="3">
-        <v>103500</v>
+        <v>415800</v>
       </c>
       <c r="F60" s="3">
-        <v>78500</v>
+        <v>497500</v>
       </c>
       <c r="G60" s="3">
-        <v>67300</v>
+        <v>344300</v>
       </c>
       <c r="H60" s="3">
-        <v>57400</v>
+        <v>357500</v>
       </c>
       <c r="I60" s="3">
-        <v>61400</v>
+        <v>138200</v>
       </c>
       <c r="J60" s="3">
-        <v>54800</v>
+        <v>133100</v>
       </c>
       <c r="K60" s="3">
         <v>95500</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>569100</v>
+        <v>385700</v>
       </c>
       <c r="E61" s="3">
-        <v>514800</v>
+        <v>396000</v>
       </c>
       <c r="F61" s="3">
-        <v>345800</v>
+        <v>401600</v>
       </c>
       <c r="G61" s="3">
-        <v>357000</v>
+        <v>357600</v>
       </c>
       <c r="H61" s="3">
-        <v>345600</v>
+        <v>25700</v>
       </c>
       <c r="I61" s="3">
-        <v>317900</v>
+        <v>208900</v>
       </c>
       <c r="J61" s="3">
-        <v>373100</v>
+        <v>196600</v>
       </c>
       <c r="K61" s="3">
         <v>305400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>240600</v>
+        <v>20100</v>
       </c>
       <c r="E62" s="3">
-        <v>206400</v>
+        <v>17600</v>
       </c>
       <c r="F62" s="3">
-        <v>168700</v>
+        <v>14300</v>
       </c>
       <c r="G62" s="3">
-        <v>158000</v>
+        <v>15000</v>
       </c>
       <c r="H62" s="3">
-        <v>222600</v>
+        <v>800</v>
       </c>
       <c r="I62" s="3">
-        <v>242300</v>
+        <v>14500</v>
       </c>
       <c r="J62" s="3">
-        <v>182600</v>
+        <v>31400</v>
       </c>
       <c r="K62" s="3">
         <v>203500</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>922300</v>
+        <v>838300</v>
       </c>
       <c r="E66" s="3">
-        <v>824700</v>
+        <v>829400</v>
       </c>
       <c r="F66" s="3">
-        <v>593000</v>
+        <v>913300</v>
       </c>
       <c r="G66" s="3">
-        <v>582300</v>
+        <v>716900</v>
       </c>
       <c r="H66" s="3">
-        <v>625600</v>
+        <v>384100</v>
       </c>
       <c r="I66" s="3">
-        <v>621600</v>
+        <v>361500</v>
       </c>
       <c r="J66" s="3">
-        <v>610500</v>
+        <v>361200</v>
       </c>
       <c r="K66" s="3">
         <v>603900</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-206100</v>
+        <v>92300</v>
       </c>
       <c r="E72" s="3">
-        <v>-180100</v>
+        <v>-51400</v>
       </c>
       <c r="F72" s="3">
-        <v>-216600</v>
+        <v>-56300</v>
       </c>
       <c r="G72" s="3">
-        <v>-193100</v>
+        <v>-133700</v>
       </c>
       <c r="H72" s="3">
-        <v>-139700</v>
+        <v>-101300</v>
       </c>
       <c r="I72" s="3">
-        <v>-102900</v>
+        <v>-172400</v>
       </c>
       <c r="J72" s="3">
-        <v>-137100</v>
+        <v>-167300</v>
       </c>
       <c r="K72" s="3">
         <v>-105700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>356400</v>
+        <v>517300</v>
       </c>
       <c r="E76" s="3">
-        <v>358500</v>
+        <v>374700</v>
       </c>
       <c r="F76" s="3">
-        <v>317400</v>
+        <v>384000</v>
       </c>
       <c r="G76" s="3">
-        <v>301700</v>
+        <v>275300</v>
       </c>
       <c r="H76" s="3">
-        <v>347100</v>
+        <v>316200</v>
       </c>
       <c r="I76" s="3">
-        <v>367100</v>
+        <v>253000</v>
       </c>
       <c r="J76" s="3">
-        <v>338900</v>
+        <v>239700</v>
       </c>
       <c r="K76" s="3">
         <v>370300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-26000</v>
+        <v>195600</v>
       </c>
       <c r="E81" s="3">
-        <v>36500</v>
+        <v>177400</v>
       </c>
       <c r="F81" s="3">
-        <v>-23500</v>
+        <v>131800</v>
       </c>
       <c r="G81" s="3">
-        <v>-53400</v>
+        <v>77100</v>
       </c>
       <c r="H81" s="3">
-        <v>-35800</v>
+        <v>99600</v>
       </c>
       <c r="I81" s="3">
-        <v>34300</v>
+        <v>32600</v>
       </c>
       <c r="J81" s="3">
-        <v>-31400</v>
+        <v>33800</v>
       </c>
       <c r="K81" s="3">
         <v>-62400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>52000</v>
+        <v>92500</v>
       </c>
       <c r="E83" s="3">
-        <v>66600</v>
+        <v>87300</v>
       </c>
       <c r="F83" s="3">
-        <v>95300</v>
+        <v>92800</v>
       </c>
       <c r="G83" s="3">
-        <v>109800</v>
+        <v>89200</v>
       </c>
       <c r="H83" s="3">
-        <v>70800</v>
+        <v>76300</v>
       </c>
       <c r="I83" s="3">
-        <v>47700</v>
+        <v>77300</v>
       </c>
       <c r="J83" s="3">
-        <v>53000</v>
+        <v>65400</v>
       </c>
       <c r="K83" s="3">
         <v>49600</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>81300</v>
+        <v>325600</v>
       </c>
       <c r="E89" s="3">
-        <v>174800</v>
+        <v>182900</v>
       </c>
       <c r="F89" s="3">
-        <v>106200</v>
+        <v>319900</v>
       </c>
       <c r="G89" s="3">
-        <v>42600</v>
+        <v>121700</v>
       </c>
       <c r="H89" s="3">
-        <v>94100</v>
+        <v>186700</v>
       </c>
       <c r="I89" s="3">
-        <v>211100</v>
+        <v>96600</v>
       </c>
       <c r="J89" s="3">
-        <v>33900</v>
+        <v>62200</v>
       </c>
       <c r="K89" s="3">
         <v>51700</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-149000</v>
+        <v>-199900</v>
       </c>
       <c r="E91" s="3">
-        <v>-70700</v>
+        <v>-39200</v>
       </c>
       <c r="F91" s="3">
-        <v>-65500</v>
+        <v>-27700</v>
       </c>
       <c r="G91" s="3">
-        <v>-50800</v>
+        <v>-69100</v>
       </c>
       <c r="H91" s="3">
-        <v>-94900</v>
+        <v>-32300</v>
       </c>
       <c r="I91" s="3">
-        <v>-97200</v>
+        <v>-24700</v>
       </c>
       <c r="J91" s="3">
-        <v>-18800</v>
+        <v>-29900</v>
       </c>
       <c r="K91" s="3">
         <v>-19000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-166400</v>
+        <v>-177900</v>
       </c>
       <c r="E94" s="3">
-        <v>-147700</v>
+        <v>-193100</v>
       </c>
       <c r="F94" s="3">
-        <v>-59600</v>
+        <v>11900</v>
       </c>
       <c r="G94" s="3">
-        <v>-16900</v>
+        <v>-35800</v>
       </c>
       <c r="H94" s="3">
-        <v>-94400</v>
+        <v>-66100</v>
       </c>
       <c r="I94" s="3">
-        <v>-101800</v>
+        <v>-133700</v>
       </c>
       <c r="J94" s="3">
-        <v>-19100</v>
+        <v>-24100</v>
       </c>
       <c r="K94" s="3">
         <v>-2800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-35700</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-36400</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-37200</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-37400</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-37200</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-36900</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-36600</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-35200</v>
+        <v>-62300</v>
       </c>
       <c r="E100" s="3">
-        <v>125800</v>
+        <v>-317100</v>
       </c>
       <c r="F100" s="3">
-        <v>-11900</v>
+        <v>39900</v>
       </c>
       <c r="G100" s="3">
-        <v>-16700</v>
+        <v>-162900</v>
       </c>
       <c r="H100" s="3">
-        <v>-33600</v>
+        <v>-90900</v>
       </c>
       <c r="I100" s="3">
-        <v>-112900</v>
+        <v>-37100</v>
       </c>
       <c r="J100" s="3">
-        <v>6300</v>
+        <v>135900</v>
       </c>
       <c r="K100" s="3">
         <v>-30600</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>-1200</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>-2700</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>-5100</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>4400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-115900</v>
+        <v>85400</v>
       </c>
       <c r="E102" s="3">
-        <v>151700</v>
+        <v>-327300</v>
       </c>
       <c r="F102" s="3">
-        <v>31900</v>
+        <v>371700</v>
       </c>
       <c r="G102" s="3">
-        <v>7500</v>
+        <v>-77000</v>
       </c>
       <c r="H102" s="3">
-        <v>-34600</v>
+        <v>29800</v>
       </c>
       <c r="I102" s="3">
-        <v>-8800</v>
+        <v>-74300</v>
       </c>
       <c r="J102" s="3">
-        <v>20500</v>
+        <v>174000</v>
       </c>
       <c r="K102" s="3">
         <v>22700</v>
